--- a/ServerGrpc/Data/DATA_CONST_GAME.xlsx
+++ b/ServerGrpc/Data/DATA_CONST_GAME.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\GrpcTest\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB144E32-ACCE-41BF-BFB7-CED744514BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86936F5E-2DFC-4C60-8DE2-F25ADE4BC6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3090" yWindow="3600" windowWidth="25065" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,15 +39,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VALUE_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VALUE_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VALUE_3</t>
+    <t>CHARACTER_MAX_SIZE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INVEN_SIZE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX_GOLD_AMOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECOVERY_TICK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BATTLE_TICK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,12 +396,14 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="15.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.125" style="2" customWidth="1"/>
     <col min="4" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -416,7 +426,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -427,7 +437,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -441,18 +451,36 @@
         <v>5</v>
       </c>
       <c r="C4" s="2">
-        <v>30</v>
+        <v>99999999</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
